--- a/data/trans_media/IQ27A-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ27A-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>123,82; 135,11</t>
+          <t>123,29; 134,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>122,17; 135,28</t>
+          <t>123,58; 135,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>125,55; 137,06</t>
+          <t>125,52; 137,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>120,75; 134,54</t>
+          <t>121,76; 135,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>128,51; 138,81</t>
+          <t>128,71; 138,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>123,26; 135,03</t>
+          <t>123,75; 134,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>115,76; 129,85</t>
+          <t>115,99; 130,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>127,7; 144,0</t>
+          <t>127,04; 143,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>127,6; 135,22</t>
+          <t>127,89; 135,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>124,89; 133,88</t>
+          <t>124,85; 133,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>122,57; 132,15</t>
+          <t>122,45; 132,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>126,85; 137,25</t>
+          <t>126,68; 137,35</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>127,0; 131,77</t>
+          <t>126,44; 131,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>120,57; 125,73</t>
+          <t>120,43; 125,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>123,13; 127,82</t>
+          <t>123,0; 127,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>135,4; 140,77</t>
+          <t>135,53; 140,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>124,14; 129,15</t>
+          <t>124,4; 129,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>118,23; 123,76</t>
+          <t>118,27; 123,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>122,93; 128,02</t>
+          <t>123,15; 127,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>130,23; 135,12</t>
+          <t>130,29; 135,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>126,16; 129,97</t>
+          <t>126,29; 129,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>120,4; 124,06</t>
+          <t>120,27; 124,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>123,76; 127,21</t>
+          <t>123,75; 127,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>133,71; 137,22</t>
+          <t>133,66; 137,19</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>116,8; 126,65</t>
+          <t>116,97; 126,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>114,83; 122,72</t>
+          <t>114,74; 123,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>114,85; 123,44</t>
+          <t>115,1; 123,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>132,67; 140,08</t>
+          <t>132,06; 139,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>116,34; 124,04</t>
+          <t>116,75; 124,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>113,51; 121,71</t>
+          <t>113,97; 122,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>112,11; 120,62</t>
+          <t>112,45; 120,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>129,8; 137,11</t>
+          <t>129,54; 136,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>117,87; 123,5</t>
+          <t>117,8; 123,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>115,58; 121,05</t>
+          <t>115,19; 121,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>115,03; 121,21</t>
+          <t>114,79; 120,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>132,26; 137,23</t>
+          <t>132,24; 137,47</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>125,69; 129,7</t>
+          <t>125,43; 129,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>120,45; 124,9</t>
+          <t>120,64; 124,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>122,45; 126,47</t>
+          <t>122,29; 126,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>134,78; 138,78</t>
+          <t>134,8; 138,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>124,06; 128,17</t>
+          <t>124,2; 128,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>119,28; 123,59</t>
+          <t>119,37; 123,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>121,16; 124,99</t>
+          <t>121,1; 125,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>131,43; 135,37</t>
+          <t>131,22; 135,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>125,54; 128,37</t>
+          <t>125,42; 128,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>120,52; 123,72</t>
+          <t>120,54; 123,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>122,42; 125,3</t>
+          <t>122,29; 125,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>133,5; 136,46</t>
+          <t>133,6; 136,57</t>
         </is>
       </c>
     </row>
